--- a/Datasets/AGEO/2017/indices/17. Electricidad.xlsx
+++ b/Datasets/AGEO/2017/indices/17. Electricidad.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCCS\01_Dmine\Datasets\AGEO\2017\indices\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -115,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +184,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -225,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +270,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +322,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,14 +515,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -516,7 +567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -539,7 +590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -562,7 +613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -585,7 +636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -608,7 +659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -631,7 +682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -654,7 +705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -677,7 +728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -700,7 +751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -723,7 +774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -746,7 +797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -769,7 +820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -792,7 +843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -815,7 +866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -838,7 +889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -861,7 +912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -884,7 +935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -907,7 +958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -930,7 +981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -953,7 +1004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -976,7 +1027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -999,7 +1050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1022,7 +1073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1045,7 +1096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1068,7 +1119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1091,7 +1142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1114,7 +1165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1137,7 +1188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>

--- a/Datasets/AGEO/2017/indices/17. Electricidad.xlsx
+++ b/Datasets/AGEO/2017/indices/17. Electricidad.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCCS\01_Dmine\Datasets\AGEO\2017\indices\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -120,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +179,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -238,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,27 +257,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,24 +291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,16 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -567,7 +516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -590,7 +539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -613,7 +562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -636,7 +585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -659,7 +608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -682,7 +631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -705,7 +654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -728,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -751,7 +700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -774,7 +723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -797,7 +746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -820,7 +769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -843,7 +792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -866,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -889,7 +838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -912,7 +861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -935,7 +884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -958,7 +907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -981,7 +930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1004,7 +953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1027,7 +976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1050,7 +999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1073,7 +1022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1096,7 +1045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1119,7 +1068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1142,7 +1091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1165,7 +1114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1188,7 +1137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
